--- a/2022/05-bratrejov/05-VKCT2022-Bratrejov.xlsx
+++ b/2022/05-bratrejov/05-VKCT2022-Bratrejov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">Starší přípravka - dívky (2012-2013)</t>
   </si>
   <si>
-    <t xml:space="preserve">Müllerová Sofie</t>
+    <t xml:space="preserve">Müllerová Valerie</t>
   </si>
   <si>
     <t xml:space="preserve">TUFO cyklozákladna Otrokovice</t>
@@ -868,7 +868,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1455,7 +1455,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1934,7 +1934,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2384,7 +2384,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2864,11 +2864,11 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3346,7 +3346,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3816,7 +3816,7 @@
       <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4416,7 +4416,7 @@
       <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4981,10 +4981,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5177,7 +5177,7 @@
         <v>206</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -5532,7 +5532,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6091,7 +6091,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6576,11 +6576,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7061,7 +7061,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7584,7 +7584,7 @@
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8089,7 +8089,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8566,7 +8566,7 @@
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9043,7 +9043,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
